--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:24:06+00:00</t>
+    <t>2025-07-30T08:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:12:57+00:00</t>
+    <t>2025-07-30T08:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:37:32+00:00</t>
+    <t>2025-07-30T16:41:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:41:01+00:00</t>
+    <t>2025-07-30T16:51:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:51:38+00:00</t>
+    <t>2025-07-30T16:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:53:20+00:00</t>
+    <t>2025-07-30T16:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:54:54+00:00</t>
+    <t>2025-07-31T08:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T08:12:23+00:00</t>
+    <t>2025-07-31T08:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T08:39:10+00:00</t>
+    <t>2025-07-31T12:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:36:00+00:00</t>
+    <t>2025-07-31T13:22:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:22:53+00:00</t>
+    <t>2025-07-31T14:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:57:51+00:00</t>
+    <t>2025-07-31T15:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:04:06+00:00</t>
+    <t>2025-07-31T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:00:40+00:00</t>
+    <t>2025-07-31T17:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:28:56+00:00</t>
+    <t>2025-08-01T05:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T05:49:55+00:00</t>
+    <t>2025-08-01T06:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:09:21+00:00</t>
+    <t>2025-08-01T06:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:28:22+00:00</t>
+    <t>2025-08-01T06:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:28+00:00</t>
+    <t>2025-08-01T06:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:49:21+00:00</t>
+    <t>2025-09-10T13:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:27:38+00:00</t>
+    <t>2025-09-15T14:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:58:18+00:00</t>
+    <t>2025-09-16T12:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T12:38:50+00:00</t>
+    <t>2025-09-17T15:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:36:32+00:00</t>
+    <t>2025-09-17T15:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:51:47+00:00</t>
+    <t>2025-09-19T12:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:04:16+00:00</t>
+    <t>2025-09-24T12:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:27:45+00:00</t>
+    <t>2025-09-24T14:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:43:36+00:00</t>
+    <t>2025-10-16T12:41:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T14:24:53+00:00</t>
+    <t>2025-12-18T17:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-tddui-identifier.xlsx
+++ b/main/ig/CodeSystem-tddui-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
